--- a/CRE(충북대)_경보결과.xlsx
+++ b/CRE(충북대)_경보결과.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdtcb_learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF7F7CD-AEA7-444C-9746-8B71EE33F3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1BC8A2-F460-4D0E-9A60-2589B7119405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ds</t>
   </si>
@@ -39,13 +39,65 @@
   <si>
     <t>경보</t>
   </si>
+  <si>
+    <t>장기적인 하락 추세에도 불구하고, 강한 계절적 성수기의 영향으로 다음 달 발생 건수는 상당히 증가할 것으로 예측됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세와 강한 계절적 비수기의 영향으로, 다음 달 발생 건수는 감소할 것으로 예측됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세와 계절적 요인의 영향으로, 직전 월 실제값 대비 당월 예측치가 감소하여 13으로 산출되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세에도 불구하고 강한 계절적 성수기 영향으로 인해 4월 발생 건수는 증가할 것으로 예측됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세와 강한 계절적 비수기가 겹쳐져, 2023년 5월의 예측값은 직전 월 대비 3.3 감소한 11로 산출되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세와 강한 계절적 비수기 영향에도 불구하고, 직전 월 실제값 대비 증가하여 다음 달 발생 건수는 예측보다 높게 나타날 것으로 보입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세와 계절적 하락 요인이 동시에 작용하고 있지만, 예상보다 큰 증가가 나타나며 다음 달 발생 건수는 증가할 것으로 예측됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세와 강한 계절적 비수기 영향이 결합되어, 2023년 8월의 예측값은 직전 월 대비 소폭 감소한 31로 산출되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세에도 불구하고, 계절적 상승 요인이 작용하여 9월의 예측치는 20으로 직전 월 대비 8.8 감소한 것으로 나타났습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세에도 불구하고, 강한 계절적 성수기 영향으로 인해 다음 달 발생 건수가 증가할 것으로 예측됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세와 강한 계절적 비수기 영향이 맞물려, 2023년 11월의 발생 건수는 감소할 것으로 예측됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기적인 하락 추세와 강한 계절적 비수기의 영향으로, 2023년 12월의 예측값은 직전 월 실제값보다 감소한 16으로 산출되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경보해석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -78,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,16 +153,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -413,16 +479,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="131.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +510,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="2">
         <v>43101</v>
       </c>
@@ -459,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="2">
         <v>43132</v>
       </c>
@@ -476,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>43160</v>
       </c>
@@ -493,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>43191</v>
       </c>
@@ -510,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>43221</v>
       </c>
@@ -527,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>43252</v>
       </c>
@@ -544,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>43282</v>
       </c>
@@ -561,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="2">
         <v>43313</v>
       </c>
@@ -578,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="2">
         <v>43344</v>
       </c>
@@ -595,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
         <v>43374</v>
       </c>
@@ -612,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="2">
         <v>43405</v>
       </c>
@@ -629,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="2">
         <v>43435</v>
       </c>
@@ -646,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="2">
         <v>43466</v>
       </c>
@@ -663,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="2">
         <v>43497</v>
       </c>
@@ -680,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16" s="2">
         <v>43525</v>
       </c>
@@ -1274,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A49" s="2">
         <v>44531</v>
       </c>
@@ -1294,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A50" s="2">
         <v>44562</v>
       </c>
@@ -1314,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A51" s="2">
         <v>44593</v>
       </c>
@@ -1334,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A52" s="2">
         <v>44621</v>
       </c>
@@ -1354,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A53" s="2">
         <v>44652</v>
       </c>
@@ -1374,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A54" s="2">
         <v>44682</v>
       </c>
@@ -1394,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A55" s="2">
         <v>44713</v>
       </c>
@@ -1414,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A56" s="2">
         <v>44743</v>
       </c>
@@ -1434,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A57" s="2">
         <v>44774</v>
       </c>
@@ -1454,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A58" s="2">
         <v>44805</v>
       </c>
@@ -1474,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A59" s="2">
         <v>44835</v>
       </c>
@@ -1494,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A60" s="2">
         <v>44866</v>
       </c>
@@ -1514,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A61" s="2">
         <v>44896</v>
       </c>
@@ -1534,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A62" s="2">
         <v>44927</v>
       </c>
@@ -1553,8 +1625,11 @@
       <c r="F62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A63" s="2">
         <v>44958</v>
       </c>
@@ -1573,8 +1648,11 @@
       <c r="F63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A64" s="2">
         <v>44986</v>
       </c>
@@ -1593,8 +1671,11 @@
       <c r="F64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A65" s="2">
         <v>45017</v>
       </c>
@@ -1613,8 +1694,11 @@
       <c r="F65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A66" s="2">
         <v>45047</v>
       </c>
@@ -1633,8 +1717,11 @@
       <c r="F66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A67" s="2">
         <v>45078</v>
       </c>
@@ -1653,8 +1740,11 @@
       <c r="F67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A68" s="2">
         <v>45108</v>
       </c>
@@ -1673,8 +1763,11 @@
       <c r="F68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A69" s="2">
         <v>45139</v>
       </c>
@@ -1693,8 +1786,11 @@
       <c r="F69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A70" s="2">
         <v>45170</v>
       </c>
@@ -1713,8 +1809,11 @@
       <c r="F70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A71" s="2">
         <v>45200</v>
       </c>
@@ -1733,8 +1832,11 @@
       <c r="F71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A72" s="2">
         <v>45231</v>
       </c>
@@ -1753,8 +1855,11 @@
       <c r="F72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A73" s="2">
         <v>45261</v>
       </c>
@@ -1773,8 +1878,11 @@
       <c r="F73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A74" s="2">
         <v>45292</v>
       </c>
@@ -1791,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A75" s="2">
         <v>45323</v>
       </c>
@@ -1808,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A76" s="2">
         <v>45352</v>
       </c>
@@ -1825,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A77" s="2">
         <v>45383</v>
       </c>
@@ -1842,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A78" s="2">
         <v>45413</v>
       </c>
@@ -1859,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A79" s="2">
         <v>45444</v>
       </c>
@@ -1876,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A80" s="2">
         <v>45474</v>
       </c>
